--- a/Saved_file/EM002/2026_06/sap_data.xlsx
+++ b/Saved_file/EM002/2026_06/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST9632</t>
+          <t>CUST2780</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10949795</v>
+        <v>21152007</v>
       </c>
       <c r="E2" t="n">
-        <v>1851137</v>
+        <v>2427330</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-06-29</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST9546</t>
+          <t>CUST1810</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17357407</v>
+        <v>8691681</v>
       </c>
       <c r="E3" t="n">
-        <v>3406585</v>
+        <v>1405278</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST4748</t>
+          <t>CUST2359</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16100704</v>
+        <v>10306075</v>
       </c>
       <c r="E4" t="n">
-        <v>2769129</v>
+        <v>1591090</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST7874</t>
+          <t>CUST2780</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10472163</v>
+        <v>8238430</v>
       </c>
       <c r="E5" t="n">
-        <v>2001540</v>
+        <v>990247</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-06-30</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST7855</t>
+          <t>CUST5333</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11782285</v>
+        <v>18102252</v>
       </c>
       <c r="E6" t="n">
-        <v>1379299</v>
+        <v>2749765</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST7855</t>
+          <t>CUST9628</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22967106</v>
+        <v>22812567</v>
       </c>
       <c r="E7" t="n">
-        <v>3447567</v>
+        <v>2593996</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-06-23</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST4748</t>
+          <t>CUST6193</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15330686</v>
+        <v>14375916</v>
       </c>
       <c r="E8" t="n">
-        <v>2690490</v>
+        <v>2210565</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST9100</t>
+          <t>CUST1811</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8867857</v>
+        <v>18729954</v>
       </c>
       <c r="E9" t="n">
-        <v>1556051</v>
+        <v>2562399</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST1875</t>
+          <t>CUST2496</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19588204</v>
+        <v>10158181</v>
       </c>
       <c r="E10" t="n">
-        <v>3721603</v>
+        <v>1708200</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST9546</t>
+          <t>CUST4547</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16568779</v>
+        <v>13200089</v>
       </c>
       <c r="E11" t="n">
-        <v>2212664</v>
+        <v>2066732</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-06-23</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST5300</t>
+          <t>CUST2359</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17633423</v>
+        <v>14263265</v>
       </c>
       <c r="E12" t="n">
-        <v>3014461</v>
+        <v>2482027</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-06-28</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST9632</t>
+          <t>CUST9372</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19401332</v>
+        <v>22612635</v>
       </c>
       <c r="E13" t="n">
-        <v>2714520</v>
+        <v>2767282</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST6336</t>
+          <t>CUST3520</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18536639</v>
+        <v>18836610</v>
       </c>
       <c r="E14" t="n">
-        <v>3170278</v>
+        <v>3242612</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST6811</t>
+          <t>CUST2431</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11578836</v>
+        <v>22628551</v>
       </c>
       <c r="E15" t="n">
-        <v>1282025</v>
+        <v>4145309</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST2019</t>
+          <t>CUST1810</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19198765</v>
+        <v>24602972</v>
       </c>
       <c r="E16" t="n">
-        <v>2193736</v>
+        <v>3802733</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST2896</t>
+          <t>CUST9217</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11918924</v>
+        <v>17638867</v>
       </c>
       <c r="E17" t="n">
-        <v>1668809</v>
+        <v>3219265</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST9247</t>
+          <t>CUST1825</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13328068</v>
+        <v>11226455</v>
       </c>
       <c r="E18" t="n">
-        <v>1636943</v>
+        <v>1592148</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST5930</t>
+          <t>CUST1643</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22630385</v>
+        <v>9236613</v>
       </c>
       <c r="E19" t="n">
-        <v>2921515</v>
+        <v>1765708</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-06-24</t>
+          <t>2026-06-26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST6811</t>
+          <t>CUST1705</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15578129</v>
+        <v>11321647</v>
       </c>
       <c r="E20" t="n">
-        <v>2693841</v>
+        <v>1804604</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-06-04</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST6336</t>
+          <t>CUST1825</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21569617</v>
+        <v>20778880</v>
       </c>
       <c r="E21" t="n">
-        <v>3963675</v>
+        <v>2444729</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST7855</t>
+          <t>CUST7950</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10538869</v>
+        <v>17827355</v>
       </c>
       <c r="E22" t="n">
-        <v>2021107</v>
+        <v>2007267</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-06-12</t>
+          <t>2026-06-18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST5612</t>
+          <t>CUST5623</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>23227421</v>
+        <v>14973887</v>
       </c>
       <c r="E23" t="n">
-        <v>4357695</v>
+        <v>2468585</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-06-26</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST4518</t>
+          <t>CUST2780</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19556007</v>
+        <v>10013668</v>
       </c>
       <c r="E24" t="n">
-        <v>2260845</v>
+        <v>1747704</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST5629</t>
+          <t>CUST4863</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11285196</v>
+        <v>14117455</v>
       </c>
       <c r="E25" t="n">
-        <v>1575225</v>
+        <v>1953951</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST8318</t>
+          <t>CUST6452</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19215946</v>
+        <v>22692557</v>
       </c>
       <c r="E26" t="n">
-        <v>2732683</v>
+        <v>2856732</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST1875</t>
+          <t>CUST9349</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9789860</v>
+        <v>15637744</v>
       </c>
       <c r="E27" t="n">
-        <v>1165831</v>
+        <v>2467295</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-06-23</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST1875</t>
+          <t>CUST5623</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14114699</v>
+        <v>18072364</v>
       </c>
       <c r="E28" t="n">
-        <v>2560525</v>
+        <v>3410744</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST4049</t>
+          <t>CUST9628</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12090651</v>
+        <v>24551178</v>
       </c>
       <c r="E29" t="n">
-        <v>1286554</v>
+        <v>4203851</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-06-18</t>
+          <t>2026-06-04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST9826</t>
+          <t>CUST9888</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14819364</v>
+        <v>14448218</v>
       </c>
       <c r="E30" t="n">
-        <v>2908982</v>
+        <v>1477766</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST1875</t>
+          <t>CUST4547</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>24169637</v>
+        <v>10612104</v>
       </c>
       <c r="E31" t="n">
-        <v>3398114</v>
+        <v>1378394</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2095,12 +2095,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST6469</t>
+          <t>CUST2017</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>22539290</v>
+        <v>15437748</v>
       </c>
       <c r="E32" t="n">
-        <v>3176736</v>
+        <v>2729065</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST6300</t>
+          <t>CUST8634</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>12721386</v>
+        <v>15297858</v>
       </c>
       <c r="E33" t="n">
-        <v>1664461</v>
+        <v>2787216</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-06-07</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST6811</t>
+          <t>CUST1810</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>17927583</v>
+        <v>23661884</v>
       </c>
       <c r="E34" t="n">
-        <v>3503897</v>
+        <v>4316382</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2026-06-25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST9546</t>
+          <t>CUST7842</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>18039018</v>
+        <v>17445974</v>
       </c>
       <c r="E35" t="n">
-        <v>3322616</v>
+        <v>1962461</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-24</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST7668</t>
+          <t>CUST5491</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8582115</v>
+        <v>21814325</v>
       </c>
       <c r="E36" t="n">
-        <v>945276</v>
+        <v>3908805</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST4748</t>
+          <t>CUST7842</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>15965630</v>
+        <v>21358647</v>
       </c>
       <c r="E37" t="n">
-        <v>2032877</v>
+        <v>2136189</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST8758</t>
+          <t>CUST2431</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>16996048</v>
+        <v>14317912</v>
       </c>
       <c r="E38" t="n">
-        <v>2313971</v>
+        <v>2034425</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-08</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST6133</t>
+          <t>CUST9332</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9566739</v>
+        <v>21239542</v>
       </c>
       <c r="E39" t="n">
-        <v>1850500</v>
+        <v>2837793</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-06-07</t>
+          <t>2026-06-25</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST4518</t>
+          <t>CUST1811</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10731437</v>
+        <v>19135281</v>
       </c>
       <c r="E40" t="n">
-        <v>1738512</v>
+        <v>3640298</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-06-09</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST3075</t>
+          <t>CUST6962</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>23931035</v>
+        <v>18640780</v>
       </c>
       <c r="E41" t="n">
-        <v>3956472</v>
+        <v>2368442</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-25</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST1841</t>
+          <t>CUST9628</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8614659</v>
+        <v>14402293</v>
       </c>
       <c r="E42" t="n">
-        <v>1360107</v>
+        <v>1883626</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2026-06-08</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST4503</t>
+          <t>CUST4863</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>16572490</v>
+        <v>19212186</v>
       </c>
       <c r="E43" t="n">
-        <v>2921824</v>
+        <v>2440274</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST6802</t>
+          <t>CUST2496</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>23059943</v>
+        <v>11562284</v>
       </c>
       <c r="E44" t="n">
-        <v>3112898</v>
+        <v>1751280</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
+          <t>2026-06-23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST6811</t>
+          <t>CUST9349</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19450562</v>
+        <v>15553741</v>
       </c>
       <c r="E45" t="n">
-        <v>2343712</v>
+        <v>2473266</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-06-11</t>
+          <t>2026-06-21</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST4748</t>
+          <t>CUST8634</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>12246313</v>
+        <v>13840570</v>
       </c>
       <c r="E46" t="n">
-        <v>1788736</v>
+        <v>2224852</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-06-27</t>
+          <t>2026-06-14</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST2404</t>
+          <t>CUST9332</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>23893535</v>
+        <v>17529764</v>
       </c>
       <c r="E47" t="n">
-        <v>3854367</v>
+        <v>2621196</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-06-22</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST7668</t>
+          <t>CUST9888</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>19512274</v>
+        <v>22835719</v>
       </c>
       <c r="E48" t="n">
-        <v>2800482</v>
+        <v>2514712</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-06-30</t>
+          <t>2026-06-05</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST8970</t>
+          <t>CUST7077</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>24328012</v>
+        <v>12661928</v>
       </c>
       <c r="E49" t="n">
-        <v>2699627</v>
+        <v>2046834</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-09</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST8318</t>
+          <t>CUST5623</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>21145718</v>
+        <v>22710565</v>
       </c>
       <c r="E50" t="n">
-        <v>2531505</v>
+        <v>2370151</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-06-19</t>
+          <t>2026-06-10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST6811</t>
+          <t>CUST3520</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17230870</v>
+        <v>10387391</v>
       </c>
       <c r="E51" t="n">
-        <v>2727775</v>
+        <v>1436854</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-07</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST4049</t>
+          <t>CUST8141</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>19468584</v>
+        <v>18778895</v>
       </c>
       <c r="E52" t="n">
-        <v>3668540</v>
+        <v>2293829</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,12 +3224,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-06-10</t>
+          <t>2026-06-15</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST5612</t>
+          <t>CUST7056</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>21361620</v>
+        <v>18677940</v>
       </c>
       <c r="E53" t="n">
-        <v>2422728</v>
+        <v>2289162</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3300,22 +3300,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-25</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST7564</t>
+          <t>CUST9349</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>18790901</v>
+        <v>12023732</v>
       </c>
       <c r="E54" t="n">
-        <v>1906551</v>
+        <v>2289621</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
         <v>56</v>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-06-26</t>
+          <t>2026-06-17</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST1444</t>
+          <t>CUST7364</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>24818051</v>
+        <v>10683492</v>
       </c>
       <c r="E55" t="n">
-        <v>2683345</v>
+        <v>1440278</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-06-05</t>
+          <t>2026-06-03</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST6802</t>
+          <t>CUST7914</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>14901176</v>
+        <v>24344956</v>
       </c>
       <c r="E56" t="n">
-        <v>2380843</v>
+        <v>3228542</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-07</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST2019</t>
+          <t>CUST8572</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>13454337</v>
+        <v>9541002</v>
       </c>
       <c r="E57" t="n">
-        <v>2248646</v>
+        <v>1335349</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-06-16</t>
+          <t>2026-06-19</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST2994</t>
+          <t>CUST4547</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>9031921</v>
+        <v>18004730</v>
       </c>
       <c r="E58" t="n">
-        <v>1009859</v>
+        <v>2577644</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3570,25 +3570,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-06-26</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST9546</t>
+          <t>CUST5491</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23766393</v>
+        <v>9434546</v>
       </c>
       <c r="E59" t="n">
-        <v>4357591</v>
+        <v>1251558</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-06-17</t>
+          <t>2026-06-16</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST5930</t>
+          <t>CUST9217</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>9054907</v>
+        <v>21958603</v>
       </c>
       <c r="E60" t="n">
-        <v>1774332</v>
+        <v>4311263</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3683,24 +3683,24 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST7564</t>
+          <t>CUST6193</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>21152552</v>
+        <v>19374322</v>
       </c>
       <c r="E61" t="n">
-        <v>4110019</v>
+        <v>2836384</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>62.9</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>4978050</v>
+        <v>7959392</v>
       </c>
       <c r="E2" t="n">
-        <v>623852</v>
+        <v>1141199</v>
       </c>
     </row>
     <row r="3">
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.5</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>7658383</v>
+        <v>4600157</v>
       </c>
       <c r="E3" t="n">
-        <v>2008951</v>
+        <v>1170279</v>
       </c>
     </row>
     <row r="4">
@@ -3815,16 +3815,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>6840882</v>
+        <v>18128492</v>
       </c>
       <c r="E4" t="n">
-        <v>1338352</v>
+        <v>2582386</v>
       </c>
     </row>
     <row r="5">
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.3</v>
+        <v>74.3</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4557713</v>
+        <v>8879522</v>
       </c>
       <c r="E5" t="n">
-        <v>955336</v>
+        <v>2517268</v>
       </c>
     </row>
     <row r="6">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5496792</v>
+        <v>6075515</v>
       </c>
       <c r="E6" t="n">
-        <v>941193</v>
+        <v>1520417</v>
       </c>
     </row>
     <row r="7">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7426605</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1904250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3910,16 +3910,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.8</v>
+        <v>75.3</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>3558611</v>
+        <v>9428895</v>
       </c>
       <c r="E9" t="n">
-        <v>792310</v>
+        <v>2112268</v>
       </c>
     </row>
     <row r="10">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.2</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3108375</v>
+        <v>9717956</v>
       </c>
       <c r="E10" t="n">
-        <v>451700</v>
+        <v>2646414</v>
       </c>
     </row>
     <row r="11">
@@ -3948,16 +3948,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.90000000000001</v>
+        <v>60.6</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>4843843</v>
+        <v>8442422</v>
       </c>
       <c r="E11" t="n">
-        <v>1410651</v>
+        <v>1914841</v>
       </c>
     </row>
     <row r="12">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.3</v>
+        <v>69.8</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>4323710</v>
+        <v>4808755</v>
       </c>
       <c r="E12" t="n">
-        <v>1135629</v>
+        <v>850214</v>
       </c>
     </row>
     <row r="13">
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.7</v>
+        <v>70.5</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8037693</v>
+        <v>9571606</v>
       </c>
       <c r="E13" t="n">
-        <v>1190607</v>
+        <v>1566637</v>
       </c>
     </row>
     <row r="14">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>50.6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>556507</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>124667</v>
       </c>
     </row>
     <row r="15">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>12257650</v>
+        <v>10450536</v>
       </c>
       <c r="E16" t="n">
-        <v>3401776</v>
+        <v>1820010</v>
       </c>
     </row>
     <row r="17">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62.2</v>
+        <v>74.2</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>11278375</v>
+        <v>2495648</v>
       </c>
       <c r="E17" t="n">
-        <v>1771069</v>
+        <v>742437</v>
       </c>
     </row>
     <row r="18">
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>67.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3976213</v>
+        <v>3659143</v>
       </c>
       <c r="E18" t="n">
-        <v>735980</v>
+        <v>1055974</v>
       </c>
     </row>
     <row r="19">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.8</v>
+        <v>75.5</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>13006275</v>
+        <v>9198006</v>
       </c>
       <c r="E19" t="n">
-        <v>3371641</v>
+        <v>1891874</v>
       </c>
     </row>
     <row r="20">
@@ -4119,16 +4119,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67.5</v>
+        <v>75.3</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>5771696</v>
+        <v>7015950</v>
       </c>
       <c r="E20" t="n">
-        <v>1587378</v>
+        <v>1631438</v>
       </c>
     </row>
     <row r="21">
@@ -4176,16 +4176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C23" t="n">
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>14566963</v>
+        <v>8880349</v>
       </c>
       <c r="E23" t="n">
-        <v>3060771</v>
+        <v>1348356</v>
       </c>
     </row>
     <row r="24">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>79.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>4378561</v>
+        <v>12378701</v>
       </c>
       <c r="E24" t="n">
-        <v>1174427</v>
+        <v>2416612</v>
       </c>
     </row>
     <row r="25">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>6737954</v>
+        <v>16580919</v>
       </c>
       <c r="E25" t="n">
-        <v>1414017</v>
+        <v>3964978</v>
       </c>
     </row>
     <row r="26">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.1</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>3609172</v>
+        <v>3408038</v>
       </c>
       <c r="E26" t="n">
-        <v>464616</v>
+        <v>845301</v>
       </c>
     </row>
     <row r="27">
@@ -4252,16 +4252,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67.2</v>
+        <v>61.7</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>3233159</v>
+        <v>7501443</v>
       </c>
       <c r="E27" t="n">
-        <v>698040</v>
+        <v>1272841</v>
       </c>
     </row>
     <row r="28">
@@ -4309,16 +4309,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62.4</v>
+        <v>64.7</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8875738</v>
+        <v>5845944</v>
       </c>
       <c r="E30" t="n">
-        <v>1574245</v>
+        <v>742224</v>
       </c>
     </row>
     <row r="31">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63.4</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>3447781</v>
+        <v>12840305</v>
       </c>
       <c r="E31" t="n">
-        <v>664393</v>
+        <v>1373357</v>
       </c>
     </row>
   </sheetData>
